--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3634.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3634.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.659428068025477</v>
+        <v>1.281384468078613</v>
       </c>
       <c r="B1">
-        <v>2.169551529184504</v>
+        <v>1.650769591331482</v>
       </c>
       <c r="C1">
-        <v>2.247300644039124</v>
+        <v>3.030357599258423</v>
       </c>
       <c r="D1">
-        <v>2.613763213117041</v>
+        <v>1.505936741828918</v>
       </c>
       <c r="E1">
-        <v>2.395585392182293</v>
+        <v>0.8240828514099121</v>
       </c>
     </row>
   </sheetData>
